--- a/doc/test_calc.xlsx
+++ b/doc/test_calc.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelhasler/development/tst-basic/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09F5E645-FB9D-144E-A450-07CFF20E949F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40F28FB-66A4-614B-BB06-66992FFF1824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24580" yWindow="900" windowWidth="24440" windowHeight="18400" xr2:uid="{96824548-8EB8-564D-BA0E-0943C3F4CD0E}"/>
+    <workbookView xWindow="22600" yWindow="1360" windowWidth="26960" windowHeight="18360" xr2:uid="{96824548-8EB8-564D-BA0E-0943C3F4CD0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>price</t>
   </si>
@@ -100,16 +100,22 @@
     <t>Owner [2]</t>
   </si>
   <si>
-    <t>tax</t>
-  </si>
-  <si>
-    <t>totalCost</t>
-  </si>
-  <si>
-    <t>tangible</t>
-  </si>
-  <si>
-    <t>contribution</t>
+    <t>can</t>
+  </si>
+  <si>
+    <t>Disburst</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Vale</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>goals</t>
   </si>
 </sst>
 </file>
@@ -133,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -168,6 +180,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,25 +497,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F946099B-5CCE-9F49-A2E5-DB56A401FC85}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="13" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -566,11 +578,11 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>30000000</v>
+        <v>3000000</v>
       </c>
       <c r="E3">
         <f>(C3*D3*0.05)+C3*D3</f>
-        <v>1575000000</v>
+        <v>157500000</v>
       </c>
       <c r="F3">
         <v>3007500000</v>
@@ -584,15 +596,15 @@
       </c>
       <c r="J3" s="4">
         <f>C3*D3*0.05*0.9</f>
-        <v>67500000</v>
+        <v>6750000</v>
       </c>
       <c r="K3">
         <f>C3*D3*0.05*0.1</f>
-        <v>7500000</v>
+        <v>750000</v>
       </c>
       <c r="L3" s="4">
         <f>D3*C3</f>
-        <v>1500000000</v>
+        <v>150000000</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -697,6 +709,9 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>157893750</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="L8" s="4"/>
     </row>
@@ -731,7 +746,7 @@
       </c>
       <c r="J9" s="4">
         <f>C9*D9*0.05*0.9+J3</f>
-        <v>94567500</v>
+        <v>33817500</v>
       </c>
       <c r="K9">
         <f>C9*D9*0.05*0.1</f>
@@ -774,7 +789,7 @@
       </c>
       <c r="J10" s="4">
         <f>C10*D10*0.05*0.9+J9</f>
-        <v>114868125</v>
+        <v>54118125</v>
       </c>
       <c r="K10">
         <f>C10*D10*0.05*0.1</f>
@@ -817,7 +832,7 @@
       </c>
       <c r="J11" s="4">
         <f>C11*D11*0.05*0.9+J10</f>
-        <v>169003125</v>
+        <v>108253125</v>
       </c>
       <c r="K11">
         <f>C11*D11*0.05*0.1</f>
@@ -845,25 +860,25 @@
         <f>H3*0.5</f>
         <v>15037500</v>
       </c>
-      <c r="F13">
-        <f>F11-K13</f>
-        <v>3018026250</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
+        <f>F11+K13</f>
+        <v>3019530000</v>
+      </c>
+      <c r="G13" s="6">
         <f>G11-I13</f>
         <v>3177423750</v>
       </c>
       <c r="H13" s="2">
         <f>F13/100</f>
-        <v>30180262.5</v>
+        <v>30195300</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" ref="I13" si="3">(C13*D13*0.05*0.9)+L13</f>
+        <f>(C13*D13*0.05*0.9)+N13</f>
         <v>157141875</v>
       </c>
       <c r="J13" s="4">
         <f>C13*D13*0.05*0.9+J11</f>
-        <v>175770000</v>
+        <v>115020000</v>
       </c>
       <c r="K13" s="2">
         <f>C13*D13*0.05*0.1</f>
@@ -873,7 +888,7 @@
         <f>C13*D13</f>
         <v>150375000</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="4">
         <v>38575375000</v>
       </c>
       <c r="N13">
@@ -882,45 +897,155 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F15" t="s">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7">
+        <f>E7-N13-(C13*D13*0.05*0.9)-K13</f>
+        <v>157893750</v>
+      </c>
+      <c r="G15" s="2">
+        <f>G13-E15</f>
+        <v>3019530000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G16" s="2">
+        <v>3019530000</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="G15">
-        <f>D13*10</f>
-        <v>150375000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="2">
-        <f>G15*5/100</f>
-        <v>7518750</v>
-      </c>
-      <c r="H16" s="2">
-        <v>7526268.75</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F17" t="s">
+      <c r="E19">
+        <v>100000000</v>
+      </c>
+      <c r="G19" s="2">
+        <f>G15+E19</f>
+        <v>3119530000</v>
+      </c>
+      <c r="H19">
+        <f>G19/100</f>
+        <v>31195300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="2">
-        <f>(G16*(100-10))/100</f>
-        <v>6766875</v>
-      </c>
-      <c r="H17" s="2">
-        <v>6773641.875</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="2">
-        <f>H16-H17</f>
-        <v>752626.875</v>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>50000</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E24">
+        <f>C24/100</f>
+        <v>500</v>
+      </c>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <f>E24*C27</f>
+        <v>25000</v>
+      </c>
+      <c r="E27">
+        <f>D27+(D27*0.1)</f>
+        <v>27500</v>
+      </c>
+      <c r="G27">
+        <v>51250</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f>G27*100/C24</f>
+        <v>102.5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <f>SUM(J27,J28)</f>
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <f>J29*1000</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f>G27+K29</f>
+        <v>71250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f>G30/100</f>
+        <v>712.5</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <f>C27*G31</f>
+        <v>35625</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <f>G30/2</f>
+        <v>35625</v>
+      </c>
+      <c r="H35">
+        <f>G35/100</f>
+        <v>356.25</v>
       </c>
     </row>
   </sheetData>
